--- a/Player_Data/Munchkin_Player_Data.xlsx
+++ b/Player_Data/Munchkin_Player_Data.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(9) 75%</t>
+          <t xml:space="preserve"> 75</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -536,10 +536,8 @@
       <c r="F2" t="n">
         <v>142.4</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>71%</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.71</v>
       </c>
       <c r="H2" t="n">
         <v>0.74</v>
@@ -572,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(3) 25%</t>
+          <t xml:space="preserve"> 25</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -590,10 +588,8 @@
       <c r="F3" t="n">
         <v>112</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.77</v>
       </c>
       <c r="H3" t="n">
         <v>0.63</v>

--- a/Player_Data/Munchkin_Player_Data.xlsx
+++ b/Player_Data/Munchkin_Player_Data.xlsx
@@ -518,29 +518,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75</t>
+          <t xml:space="preserve"> 77</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D2" t="n">
-        <v>206</v>
+        <v>203.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F2" t="n">
-        <v>142.4</v>
+        <v>140.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="H2" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I2" t="n">
         <v>0.33</v>
@@ -552,25 +552,25 @@
         <v>0.1</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M2" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="N2" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25</t>
+          <t xml:space="preserve"> 23</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/Player_Data/Munchkin_Player_Data.xlsx
+++ b/Player_Data/Munchkin_Player_Data.xlsx
@@ -518,29 +518,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77</t>
+          <t xml:space="preserve"> 73</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.01</v>
       </c>
-      <c r="D2" t="n">
-        <v>203.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="F2" t="n">
-        <v>140.2</v>
+        <v>137.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H2" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="I2" t="n">
         <v>0.33</v>
@@ -552,71 +552,71 @@
         <v>0.1</v>
       </c>
       <c r="L2" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M2" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="N2" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23</t>
+          <t xml:space="preserve"> 27</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>190</v>
+        <v>179.5</v>
       </c>
       <c r="E3" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>112</v>
+        <v>105.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L3" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M3" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
